--- a/project_mgmt/tasks.xlsx
+++ b/project_mgmt/tasks.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">WHAT IF NOT</t>
   </si>
   <si>
-    <t xml:space="preserve">diagnose problem in dataset and apply correction factor</t>
+    <t xml:space="preserve">Diagnose problem in travel survey and apply correction factor</t>
   </si>
   <si>
     <t xml:space="preserve">Ac., Ban.</t>
@@ -205,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -242,6 +242,76 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top style="thin"/>
@@ -260,55 +330,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -337,7 +358,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,47 +419,59 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -458,15 +491,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -474,36 +515,28 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -527,26 +560,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="2.83673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.83673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.6989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -567,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
@@ -591,70 +624,75 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="16" t="n">
+      <c r="F3" s="12" t="n">
         <v>43622</v>
       </c>
-      <c r="G3" s="17" t="n">
+      <c r="G3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="n">
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -675,66 +713,69 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
+    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
+    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="n">
         <v>2</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="n">
         <v>3</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" s="29" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
+    <row r="13" customFormat="false" ht="35.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="n">
         <v>4</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -747,60 +788,60 @@
       <c r="G13" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="31" t="n">
+      <c r="H13" s="23" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
+    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="n">
         <v>5</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="32" t="n">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="23" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
+    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="n">
         <v>6</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="33" t="n">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="23" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
+    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="n">
         <v>7</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -813,34 +854,46 @@
       <c r="G16" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="31" t="n">
+      <c r="H16" s="23" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
+    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="n">
         <v>8</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
@@ -856,15 +909,15 @@
         <v>5</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="34"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -873,58 +926,61 @@
       <c r="E22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" customFormat="false" ht="35.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="0"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="0"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" customFormat="false" ht="35.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -936,37 +992,30 @@
       <c r="F25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" customFormat="false" ht="35.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="0"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="36"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -986,7 +1035,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -994,14 +1043,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="2.83673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.9132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,165 +1074,165 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="n">
+      <c r="A2" s="17" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="17" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="9"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
-      <c r="H3" s="40"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="17" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="17" t="n">
         <v>5</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="31" t="n">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="36" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="17" t="n">
         <v>6</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="37" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="17" t="n">
         <v>7</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="33" t="n">
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="38" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="17" t="n">
         <v>8</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="31" t="n">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="17" t="n">
         <v>9</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="29"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1203,21 +1252,21 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="2.83673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.83673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.8724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,20 +1295,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="n">
+      <c r="F2" s="40"/>
+      <c r="G2" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="41" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1268,20 +1317,20 @@
         <v>3</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1290,20 +1339,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="28" t="n">
+      <c r="F4" s="45"/>
+      <c r="G4" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1312,20 +1361,20 @@
         <v>5</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="41" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1334,20 +1383,20 @@
         <v>6</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="27" t="s">
         <v>37</v>
       </c>
     </row>

--- a/project_mgmt/tasks.xlsx
+++ b/project_mgmt/tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/091c3e5764e76af6/Cambridge/TIGTHAT/ITHIM-R/project_mgmt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmtg3\OneDrive\Cambridge\TIGTHAT\ITHIM-R\project_mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="11_DAD5FB694A7406CB2EF4169143EBA976F4CECF72" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{74858372-4793-438D-9A78-AA7F87FAD81B}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_DAD5FB694A7406CB2EF4169143EBA976F4CECF72" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3A4EC635-B836-4F43-B08B-85D8951B6341}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>DATA</t>
   </si>
@@ -222,10 +222,10 @@
     <t>Bogota</t>
   </si>
   <si>
-    <t>Belo Horizonte, Bogota</t>
-  </si>
-  <si>
     <t>Acquire remaining data for Belo Horizonte (including police data), Bogota, Buenos Aires, Santiago, and Mexico City</t>
+  </si>
+  <si>
+    <t>Belo Horizonte, Bogota, Buenos Aires, Santiago, Mexico City</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,9 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1051,7 +1053,9 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="44" t="s">
+        <v>43</v>
+      </c>
       <c r="C7" s="16" t="s">
         <v>59</v>
       </c>
@@ -1075,10 +1079,10 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>61</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>43</v>

--- a/project_mgmt/tasks.xlsx
+++ b/project_mgmt/tasks.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmtg3\OneDrive\Cambridge\TIGTHAT\ITHIM-R\project_mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_DAD5FB694A7406CB2EF4169143EBA976F4CECF72" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3A4EC635-B836-4F43-B08B-85D8951B6341}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_DAD5FB694A7406CB2EF4169143EBA976F4CECF72" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A10A3292-ADDA-45BC-8C57-5B923B512CEC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="PARAMETERS" sheetId="2" r:id="rId2"/>
-    <sheet name="WISH LIST" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>DATA</t>
   </si>
@@ -122,9 +120,6 @@
     <t>RG, LG</t>
   </si>
   <si>
-    <t>Use SP's PA data with confidence 0.3</t>
-  </si>
-  <si>
     <t>Get GBD data for Bangalore, rather than India (gbd_bangalore.csv) OR scale/adjust India data. @rahulatiitd to contact GBD team to get detailed data for Bangalore (age and sex specific)</t>
   </si>
   <si>
@@ -143,25 +138,6 @@
     <t>Use without covariates</t>
   </si>
   <si>
-    <t>WHAT</t>
-  </si>
-  <si>
-    <t>PA data (pa_bangalore.csv file with columns: "sex", "age", "work_ltpa_travel_marg_met")
-Using Sao Paulo data for now, @rahulatiitd and @leandromtg to replace this with India data (SAGE 2007)</t>
-  </si>
-  <si>
-    <t>Get GBD data for Bangalore, rather than India (gbd_bangalore.csv) OR scale/adjust India data. 
-@rahulatiitd to contact GBD team to get detailed data for Bangalore (age and sex specific)</t>
-  </si>
-  <si>
-    <t>PA data (pa_delhi.csv file with columns: "sex", "age", "work_ltpa_travel_marg_met")
-Using Sao Paulo data for now, @rahulatiitd and @leandromtg to replace this with India data (SAGE 2007)</t>
-  </si>
-  <si>
-    <t>Get GBD data for Delhi, rather than India (gbd_delhi.csv) OR scale/adjust India data. 
-@rahulatiitd to contact GBD team to get detailed data for Delhi (age and sex specific)</t>
-  </si>
-  <si>
     <t>LG, RG</t>
   </si>
   <si>
@@ -213,9 +189,6 @@
     <t>Accra, Bangaluru</t>
   </si>
   <si>
-    <t>Santiago, Buenos Aires, Belo Horizonte, Salvador, Feira de Santana</t>
-  </si>
-  <si>
     <t>Sort issues with Bogota travel time (RG to contact authors of https://doi.org/10.3390/su10113958; Leandro to search for other surveys)</t>
   </si>
   <si>
@@ -226,6 +199,9 @@
   </si>
   <si>
     <t>Belo Horizonte, Bogota, Buenos Aires, Santiago, Mexico City</t>
+  </si>
+  <si>
+    <t>Santiago, Buenos Aires, Belo Horizonte, Mexico City</t>
   </si>
 </sst>
 </file>
@@ -260,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -366,91 +342,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,64 +397,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,7 +732,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,12 +773,12 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>57</v>
+      <c r="D2" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>7</v>
@@ -959,15 +797,15 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F3" s="12">
         <v>43622</v>
@@ -983,15 +821,15 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F4" s="12">
         <v>43633</v>
@@ -1007,17 +845,17 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>49</v>
+      <c r="B5" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F5" s="12">
         <v>43627</v>
@@ -1031,15 +869,15 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F6" s="12">
         <v>43633</v>
@@ -1053,17 +891,17 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>43</v>
+      <c r="B7" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="F7" s="12">
         <v>43636</v>
@@ -1077,18 +915,20 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F8" s="12">
-        <v>43633</v>
+        <v>43628</v>
       </c>
       <c r="G8" s="13">
         <v>1</v>
@@ -1099,15 +939,15 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13">
@@ -1119,15 +959,15 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13">
@@ -1139,12 +979,12 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>28</v>
@@ -1161,15 +1001,15 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" s="12">
         <v>43642</v>
@@ -1180,13 +1020,13 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
@@ -1404,16 +1244,16 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
@@ -1425,16 +1265,16 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="19"/>
@@ -1446,390 +1286,20 @@
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="19"/>
       <c r="I27" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="2.7109375"/>
-    <col min="3" max="3" width="57.28515625"/>
-    <col min="4" max="4" width="10.28515625"/>
-    <col min="5" max="5" width="8.42578125"/>
-    <col min="6" max="6" width="11" style="1"/>
-    <col min="7" max="7" width="13.85546875" style="1"/>
-    <col min="8" max="8" width="22.28515625"/>
-    <col min="9" max="1025" width="8.42578125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8">
-        <v>5</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29">
-        <v>5</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33">
-        <v>3</v>
-      </c>
-      <c r="H5" s="34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="35">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
-        <v>3</v>
-      </c>
-      <c r="H7" s="36">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>9</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
-        <v>3</v>
-      </c>
-      <c r="H9" s="30"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" style="1"/>
-    <col min="2" max="2" width="2.7109375"/>
-    <col min="3" max="3" width="91.85546875"/>
-    <col min="4" max="4" width="10.5703125"/>
-    <col min="5" max="5" width="8.42578125"/>
-    <col min="6" max="6" width="9.85546875" style="1"/>
-    <col min="7" max="7" width="12.42578125" style="1"/>
-    <col min="8" max="8" width="33"/>
-    <col min="9" max="1025" width="8.42578125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="33">
-        <v>4</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="8">
-        <v>5</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="29">
-        <v>4</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="33">
-        <v>5</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="8">
-        <v>5</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
